--- a/config_5.25/act_053_xcns_config.xlsx
+++ b/config_5.25/act_053_xcns_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -109,12 +109,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +124,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -132,45 +146,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,48 +177,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,16 +199,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,22 +237,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,12 +276,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,31 +390,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,37 +414,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,79 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,17 +476,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,35 +500,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,11 +543,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,158 +558,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1048,8 +1050,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1079,8 +1081,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>1000612</v>
+      <c r="A2" s="2">
+        <v>1000638</v>
       </c>
       <c r="B2" s="1">
         <v>1621900800</v>
@@ -1212,8 +1214,8 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/config_5.25/act_053_xcns_config.xlsx
+++ b/config_5.25/act_053_xcns_config.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="base" sheetId="1" r:id="rId1"/>
-    <sheet name="awards" sheetId="2" r:id="rId2"/>
+    <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="awardInfo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -109,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -123,6 +123,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -130,33 +160,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,103 +177,95 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -282,25 +282,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,157 +450,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +473,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,26 +547,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,40 +573,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,133 +591,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1050,8 +1050,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1214,8 +1214,8 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/config_5.25/act_053_xcns_config.xlsx
+++ b/config_5.25/act_053_xcns_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+  <si>
+    <t>line</t>
+  </si>
   <si>
     <t>task_id|任务Id</t>
   </si>
@@ -109,9 +112,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -123,38 +126,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,9 +227,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,82 +267,6 @@
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -282,187 +285,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,17 +479,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,41 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,25 +576,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,7 +594,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,124 +603,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,23 +1051,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="5" max="5" width="66" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="66" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1079,128 +1082,134 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>1000638</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>1621900800</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>1622476799</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="2:6">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="2:6">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:6">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:6">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:6">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:6">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:6">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1214,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1230,19 +1239,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1253,13 +1262,13 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1270,13 +1279,13 @@
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1287,13 +1296,13 @@
         <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1304,13 +1313,13 @@
         <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1321,13 +1330,13 @@
         <v>200</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1338,13 +1347,13 @@
         <v>400</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1355,13 +1364,13 @@
         <v>800</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1372,13 +1381,13 @@
         <v>1200</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1389,13 +1398,13 @@
         <v>2000</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1406,13 +1415,13 @@
         <v>3000</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/config_5.25/act_053_xcns_config.xlsx
+++ b/config_5.25/act_053_xcns_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <t>5~30</t>
   </si>
   <si>
-    <t>com_award_icon_hfsp2</t>
+    <t>com_award_icon_hfsp</t>
   </si>
   <si>
     <t>福利券</t>
@@ -113,9 +113,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -127,12 +127,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -148,31 +190,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,14 +224,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,14 +238,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -227,7 +256,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,36 +264,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,55 +285,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,121 +429,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,15 +476,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -499,6 +490,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,11 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,26 +557,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,7 +1053,7 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1223,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>

--- a/config_5.25/act_053_xcns_config.xlsx
+++ b/config_5.25/act_053_xcns_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="otherInfo" sheetId="1" r:id="rId1"/>
@@ -114,8 +114,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -127,104 +127,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,14 +225,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -254,6 +232,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,7 +264,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,97 +285,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,85 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +476,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,17 +512,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,17 +533,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,36 +576,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1053,8 +1053,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1000638</v>
+        <v>1000639</v>
       </c>
       <c r="C2" s="1">
         <v>1621900800</v>
@@ -1223,8 +1223,8 @@
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
